--- a/frame_work/doc/release.xlsx
+++ b/frame_work/doc/release.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\frame_work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5128F3-6567-402D-A2E7-16DD0FCBF787}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18C8F64-124B-4D6B-99C6-B15E6E079184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="plan" sheetId="2" r:id="rId2"/>
     <sheet name="BCA" sheetId="12" r:id="rId3"/>
     <sheet name="links" sheetId="14" r:id="rId4"/>
-    <sheet name="Leve_Info" sheetId="16" r:id="rId5"/>
+    <sheet name="Level_Info" sheetId="16" r:id="rId5"/>
     <sheet name="发布相关人员" sheetId="3" r:id="rId6"/>
     <sheet name="New Branch" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
@@ -5361,6 +5361,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5370,8 +5373,56 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5381,57 +5432,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10138,6 +10138,116 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="D257:D258"/>
+    <mergeCell ref="E257:E258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="E259:E260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="D261:D262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="D265:D266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="D267:D268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="E269:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
     <mergeCell ref="A289:A290"/>
     <mergeCell ref="B289:B290"/>
     <mergeCell ref="C289:C290"/>
@@ -10148,116 +10258,6 @@
     <mergeCell ref="C291:C292"/>
     <mergeCell ref="D291:D292"/>
     <mergeCell ref="E291:E292"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="E269:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="D265:D266"/>
-    <mergeCell ref="E265:E266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="D267:D268"/>
-    <mergeCell ref="E267:E268"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="E261:E262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="D257:D258"/>
-    <mergeCell ref="E257:E258"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="E259:E260"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="E247:E248"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10824,86 +10824,86 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11725,7 +11725,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12428,6 +12428,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13084,7 +13085,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="166">
+      <c r="B2" s="163">
         <v>2.75</v>
       </c>
       <c r="C2" s="130">
@@ -13101,7 +13102,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="166"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="130" t="s">
         <v>563</v>
       </c>
@@ -13116,7 +13117,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="166">
+      <c r="B4" s="163">
         <v>2.76</v>
       </c>
       <c r="C4" s="130">
@@ -13135,7 +13136,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="166"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="130" t="s">
         <v>565</v>
       </c>
@@ -13152,7 +13153,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="166">
+      <c r="B6" s="163">
         <v>2.77</v>
       </c>
       <c r="C6" s="130">
@@ -13171,7 +13172,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="166"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="130" t="s">
         <v>567</v>
       </c>
@@ -13188,7 +13189,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="166">
+      <c r="B8" s="163">
         <v>2.78</v>
       </c>
       <c r="C8" s="130">
@@ -13207,7 +13208,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="166"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="130" t="s">
         <v>569</v>
       </c>
@@ -13224,7 +13225,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="166">
+      <c r="B10" s="163">
         <v>2.79</v>
       </c>
       <c r="C10" s="130">
@@ -13243,7 +13244,7 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="166"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="130" t="s">
         <v>571</v>
       </c>
@@ -13260,7 +13261,7 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="166" t="s">
         <v>530</v>
       </c>
       <c r="C12" s="130">
@@ -13273,13 +13274,13 @@
         <v>7.71</v>
       </c>
       <c r="F12" s="129"/>
-      <c r="G12" s="165"/>
+      <c r="G12" s="166"/>
       <c r="H12" s="130"/>
       <c r="I12" s="132"/>
       <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="166"/>
+      <c r="B13" s="163"/>
       <c r="C13" s="130" t="s">
         <v>573</v>
       </c>
@@ -13290,7 +13291,7 @@
         <v>573</v>
       </c>
       <c r="F13" s="129"/>
-      <c r="G13" s="166"/>
+      <c r="G13" s="163"/>
       <c r="H13" s="130"/>
       <c r="I13" s="130"/>
       <c r="J13" s="131"/>
@@ -13299,7 +13300,7 @@
       <c r="A14" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="164" t="s">
         <v>641</v>
       </c>
       <c r="C14" s="122" t="s">
@@ -13312,7 +13313,7 @@
         <v>672</v>
       </c>
       <c r="F14" s="123"/>
-      <c r="G14" s="163" t="s">
+      <c r="G14" s="164" t="s">
         <v>678</v>
       </c>
       <c r="H14" s="122" t="s">
@@ -13326,7 +13327,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="164"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="91" t="s">
         <v>651</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>651</v>
       </c>
       <c r="F15" s="124"/>
-      <c r="G15" s="164"/>
+      <c r="G15" s="165"/>
       <c r="H15" s="91" t="s">
         <v>691</v>
       </c>
@@ -13352,7 +13353,7 @@
       <c r="A16" t="s">
         <v>712</v>
       </c>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="166" t="s">
         <v>642</v>
       </c>
       <c r="C16" s="117" t="s">
@@ -13365,7 +13366,7 @@
         <v>674</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="165" t="s">
+      <c r="G16" s="166" t="s">
         <v>679</v>
       </c>
       <c r="H16" s="117" t="s">
@@ -13379,7 +13380,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="166"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="1" t="s">
         <v>652</v>
       </c>
@@ -13390,7 +13391,7 @@
         <v>652</v>
       </c>
       <c r="F17" s="124"/>
-      <c r="G17" s="166"/>
+      <c r="G17" s="163"/>
       <c r="H17" s="1" t="s">
         <v>692</v>
       </c>
@@ -13405,7 +13406,7 @@
       <c r="A18" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="164" t="s">
         <v>643</v>
       </c>
       <c r="C18" s="120">
@@ -13418,7 +13419,7 @@
         <v>7.7699999999999987</v>
       </c>
       <c r="F18" s="125"/>
-      <c r="G18" s="163" t="s">
+      <c r="G18" s="164" t="s">
         <v>680</v>
       </c>
       <c r="H18" s="122" t="s">
@@ -13432,7 +13433,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="164"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="121" t="s">
         <v>653</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>653</v>
       </c>
       <c r="F19" s="126"/>
-      <c r="G19" s="164"/>
+      <c r="G19" s="165"/>
       <c r="H19" s="91" t="s">
         <v>693</v>
       </c>
@@ -13455,7 +13456,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="165" t="s">
+      <c r="B20" s="166" t="s">
         <v>644</v>
       </c>
       <c r="C20" s="118">
@@ -13468,7 +13469,7 @@
         <v>7.7899999999999983</v>
       </c>
       <c r="F20" s="125"/>
-      <c r="G20" s="165" t="s">
+      <c r="G20" s="166" t="s">
         <v>681</v>
       </c>
       <c r="H20" s="117" t="s">
@@ -13482,7 +13483,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="166"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="119" t="s">
         <v>654</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>654</v>
       </c>
       <c r="F21" s="126"/>
-      <c r="G21" s="166"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="1" t="s">
         <v>694</v>
       </c>
@@ -13505,7 +13506,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="164" t="s">
         <v>645</v>
       </c>
       <c r="C22" s="120">
@@ -13518,7 +13519,7 @@
         <v>7.8099999999999978</v>
       </c>
       <c r="F22" s="125"/>
-      <c r="G22" s="163" t="s">
+      <c r="G22" s="164" t="s">
         <v>682</v>
       </c>
       <c r="H22" s="122"/>
@@ -13526,7 +13527,7 @@
       <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="164"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="121" t="s">
         <v>655</v>
       </c>
@@ -13537,13 +13538,13 @@
         <v>655</v>
       </c>
       <c r="F23" s="126"/>
-      <c r="G23" s="164"/>
+      <c r="G23" s="165"/>
       <c r="H23" s="91"/>
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="166" t="s">
         <v>646</v>
       </c>
       <c r="C24" s="118">
@@ -13556,7 +13557,7 @@
         <v>7.8299999999999974</v>
       </c>
       <c r="F24" s="125"/>
-      <c r="G24" s="165" t="s">
+      <c r="G24" s="166" t="s">
         <v>683</v>
       </c>
       <c r="H24" s="117"/>
@@ -13564,7 +13565,7 @@
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B25" s="166"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="119" t="s">
         <v>656</v>
       </c>
@@ -13575,13 +13576,13 @@
         <v>656</v>
       </c>
       <c r="F25" s="126"/>
-      <c r="G25" s="166"/>
+      <c r="G25" s="163"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="164" t="s">
         <v>647</v>
       </c>
       <c r="C26" s="120">
@@ -13594,7 +13595,7 @@
         <v>7.849999999999997</v>
       </c>
       <c r="F26" s="125"/>
-      <c r="G26" s="163" t="s">
+      <c r="G26" s="164" t="s">
         <v>684</v>
       </c>
       <c r="H26" s="122"/>
@@ -13602,7 +13603,7 @@
       <c r="J26" s="122"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B27" s="164"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="121" t="s">
         <v>657</v>
       </c>
@@ -13613,13 +13614,13 @@
         <v>657</v>
       </c>
       <c r="F27" s="126"/>
-      <c r="G27" s="164"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="91"/>
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="166" t="s">
         <v>648</v>
       </c>
       <c r="C28" s="118">
@@ -13632,7 +13633,7 @@
         <v>7.8699999999999966</v>
       </c>
       <c r="F28" s="125"/>
-      <c r="G28" s="165" t="s">
+      <c r="G28" s="166" t="s">
         <v>685</v>
       </c>
       <c r="H28" s="117"/>
@@ -13640,7 +13641,7 @@
       <c r="J28" s="117"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B29" s="166"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="119" t="s">
         <v>658</v>
       </c>
@@ -13651,13 +13652,13 @@
         <v>658</v>
       </c>
       <c r="F29" s="126"/>
-      <c r="G29" s="166"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="164" t="s">
         <v>649</v>
       </c>
       <c r="C30" s="120">
@@ -13670,7 +13671,7 @@
         <v>7.8899999999999961</v>
       </c>
       <c r="F30" s="125"/>
-      <c r="G30" s="163" t="s">
+      <c r="G30" s="164" t="s">
         <v>686</v>
       </c>
       <c r="H30" s="122"/>
@@ -13678,7 +13679,7 @@
       <c r="J30" s="122"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B31" s="164"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="121" t="s">
         <v>659</v>
       </c>
@@ -13689,13 +13690,13 @@
         <v>659</v>
       </c>
       <c r="F31" s="126"/>
-      <c r="G31" s="164"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="166" t="s">
         <v>650</v>
       </c>
       <c r="C32" s="118">
@@ -13708,13 +13709,13 @@
         <v>7.9099999999999957</v>
       </c>
       <c r="F32" s="125"/>
-      <c r="G32" s="165"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
       <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B33" s="166"/>
+      <c r="B33" s="163"/>
       <c r="C33" s="119" t="s">
         <v>660</v>
       </c>
@@ -13725,18 +13726,19 @@
         <v>660</v>
       </c>
       <c r="F33" s="126"/>
-      <c r="G33" s="166"/>
+      <c r="G33" s="163"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
@@ -13753,12 +13755,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13845,10 +13846,10 @@
       <c r="A1" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="181" t="s">
         <v>396</v>
       </c>
-      <c r="C1" s="175"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="68" t="s">
         <v>397</v>
       </c>
@@ -13863,19 +13864,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="177" t="s">
         <v>433</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G2" s="181">
+      <c r="G2" s="167">
         <v>2.75</v>
       </c>
       <c r="H2" s="104" t="s">
@@ -13886,13 +13887,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="177"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="182"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="104">
         <v>7.61</v>
       </c>
@@ -13901,13 +13902,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="177"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="173"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="179"/>
       <c r="D4" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="181">
+      <c r="G4" s="167">
         <v>2.76</v>
       </c>
       <c r="H4" s="104" t="s">
@@ -13918,17 +13919,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="177"/>
-      <c r="B5" s="170" t="s">
+      <c r="A5" s="172"/>
+      <c r="B5" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="177" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="182"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="104">
         <v>7.63</v>
       </c>
@@ -13937,13 +13938,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="177"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="180"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="178"/>
       <c r="D6" s="69" t="s">
         <v>406</v>
       </c>
-      <c r="G6" s="185">
+      <c r="G6" s="169">
         <v>2.77</v>
       </c>
       <c r="H6" s="105" t="s">
@@ -13954,13 +13955,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="178"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="173"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="179"/>
       <c r="D7" s="70" t="s">
         <v>407</v>
       </c>
-      <c r="G7" s="186"/>
+      <c r="G7" s="170"/>
       <c r="H7" s="105">
         <v>7.65</v>
       </c>
@@ -13969,19 +13970,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="184" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="177" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="181">
+      <c r="G8" s="167">
         <v>2.78</v>
       </c>
       <c r="H8" s="104" t="s">
@@ -13992,13 +13993,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="173"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="70" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="182"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="104">
         <v>7.67</v>
       </c>
@@ -14007,17 +14008,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168"/>
-      <c r="B10" s="170" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="177" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="181">
+      <c r="G10" s="167">
         <v>2.79</v>
       </c>
       <c r="H10" s="104" t="s">
@@ -14028,13 +14029,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="169"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="173"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="G11" s="182"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="104">
         <v>7.69</v>
       </c>
@@ -14043,19 +14044,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="180" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="177" t="s">
         <v>415</v>
       </c>
       <c r="D12" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="G12" s="181">
+      <c r="G12" s="167">
         <v>2.8</v>
       </c>
       <c r="H12" s="104" t="s">
@@ -14066,13 +14067,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="177"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="173"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="182"/>
+      <c r="G13" s="168"/>
       <c r="H13" s="104">
         <v>7.71</v>
       </c>
@@ -14081,11 +14082,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="177"/>
-      <c r="B14" s="170" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="177" t="s">
         <v>417</v>
       </c>
       <c r="D14" s="69" t="s">
@@ -14093,21 +14094,21 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="184"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="173"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="70" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="171" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="177" t="s">
         <v>434</v>
       </c>
       <c r="D16" s="69" t="s">
@@ -14115,19 +14116,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="177"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="173"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="70" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="177"/>
-      <c r="B18" s="170" t="s">
+      <c r="A18" s="172"/>
+      <c r="B18" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="177" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="69" t="s">
@@ -14135,21 +14136,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="184"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="173"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="70" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="171" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="174" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="177" t="s">
         <v>424</v>
       </c>
       <c r="D20" s="69" t="s">
@@ -14157,51 +14158,51 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="177"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="180"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="178"/>
       <c r="D21" s="69" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="177"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="180"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="178"/>
       <c r="D22" s="69" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="177"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="180"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="178"/>
       <c r="D23" s="69" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="177"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="180"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="178"/>
       <c r="D24" s="69" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="177"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="173"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="70" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="177"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="172"/>
+      <c r="B26" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="172" t="s">
+      <c r="C26" s="177" t="s">
         <v>430</v>
       </c>
       <c r="D26" s="69" t="s">
@@ -14209,17 +14210,17 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="177"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="180"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="175"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="69" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="184"/>
-      <c r="B28" s="171"/>
-      <c r="C28" s="173"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="70" t="s">
         <v>432</v>
       </c>
@@ -14277,11 +14278,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B25"/>
@@ -14298,17 +14305,11 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
